--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C5BD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8350" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2FF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C64C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E274" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5E7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF81" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B539" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ABD2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE66" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D095" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8350" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E3E" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2FF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED6A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E274" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F978" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF81" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ABD2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BEAE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D095" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D95E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8E3E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A78A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED6A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FACA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F978" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8935" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9886" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BEAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A0CE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D95E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8BA4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A78A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C051" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FACA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E30" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8935" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9886" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDAB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A0CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B986" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BA4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E695" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C051" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA84" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E30" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A021" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A2AB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E99" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDAB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E04B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B986" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE2C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E695" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F67D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FA84" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DB55" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A021" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E99" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E04B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A495" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE2C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7C9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F67D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BDAF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DB55" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B5C0" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="995A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9001" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4C0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="95A3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A495" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCFE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7C9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E00" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BDAF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A16C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B5C0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="90DB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9001" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A00" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="95A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B559" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCFE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE0E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8E00" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C708" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A16C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A8DE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="90DB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DB08" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A00" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CBFE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B559" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4A8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE0E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF87" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C708" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A216" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A8DE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA92" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DB08" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4E3" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBFE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97A3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4A8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9461" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF87" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEC1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A216" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9086" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA92" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DADF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.3.xlsx
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C4E3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A524" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -937,7 +937,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFBF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1123,7 +1123,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9461" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A809" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1212,7 +1212,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEC1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FFDF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1433,7 +1433,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9086" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D16" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1527,7 +1527,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DADF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E2E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
